--- a/database/rawdata/emissions/icao_cruise_emissions.xlsx
+++ b/database/rawdata/emissions/icao_cruise_emissions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,7 +538,7 @@
         <v>14.66400199850112</v>
       </c>
       <c r="I3" t="n">
-        <v>21.3258022372695</v>
+        <v>21.32580223726951</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         <v>10.28493150684931</v>
       </c>
       <c r="I6" t="n">
-        <v>17.59038214747691</v>
+        <v>17.59038214747692</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
         <v>10.15081967213115</v>
       </c>
       <c r="I12" t="n">
-        <v>17.47598251800298</v>
+        <v>17.47598251800299</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         <v>10.14792899408284</v>
       </c>
       <c r="I13" t="n">
-        <v>17.47351672146571</v>
+        <v>17.47351672146572</v>
       </c>
     </row>
     <row r="14">
@@ -1033,7 +1033,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I18" t="n">
-        <v>17.28877132865397</v>
+        <v>17.28877132865398</v>
       </c>
     </row>
     <row r="19">
@@ -1066,7 +1066,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I19" t="n">
-        <v>17.28877132865397</v>
+        <v>17.28877132865398</v>
       </c>
     </row>
     <row r="20">
@@ -1099,7 +1099,7 @@
         <v>13.14102564102564</v>
       </c>
       <c r="I20" t="n">
-        <v>20.02667802978337</v>
+        <v>20.02667802978338</v>
       </c>
     </row>
     <row r="21">
@@ -1198,7 +1198,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I23" t="n">
-        <v>17.65084269028776</v>
+        <v>17.65084269028777</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I24" t="n">
-        <v>17.65084269028776</v>
+        <v>17.65084269028777</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1297,7 @@
         <v>8.951804625027018</v>
       </c>
       <c r="I26" t="n">
-        <v>16.45320270583628</v>
+        <v>16.45320270583629</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
         <v>9.221116399826915</v>
       </c>
       <c r="I28" t="n">
-        <v>16.68293013678836</v>
+        <v>16.68293013678837</v>
       </c>
     </row>
     <row r="29">
@@ -1429,7 +1429,7 @@
         <v>9.880348078317622</v>
       </c>
       <c r="I30" t="n">
-        <v>17.24526574210834</v>
+        <v>17.24526574210835</v>
       </c>
     </row>
     <row r="31">
@@ -1495,7 +1495,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I32" t="n">
-        <v>22.36789620651664</v>
+        <v>22.36789620651665</v>
       </c>
     </row>
     <row r="33">
@@ -1627,7 +1627,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I36" t="n">
-        <v>23.73926261350472</v>
+        <v>23.73926261350473</v>
       </c>
     </row>
     <row r="37">
@@ -1759,7 +1759,7 @@
         <v>9.553764497739337</v>
       </c>
       <c r="I40" t="n">
-        <v>16.96668450661232</v>
+        <v>16.96668450661233</v>
       </c>
     </row>
     <row r="41">
@@ -1858,7 +1858,7 @@
         <v>9.252850963429021</v>
       </c>
       <c r="I43" t="n">
-        <v>16.71000024827574</v>
+        <v>16.71000024827575</v>
       </c>
     </row>
     <row r="44">
@@ -1924,7 +1924,7 @@
         <v>9.806430446194225</v>
       </c>
       <c r="I45" t="n">
-        <v>17.18221277035326</v>
+        <v>17.18221277035327</v>
       </c>
     </row>
     <row r="46">
@@ -1957,7 +1957,7 @@
         <v>9.176706827309237</v>
       </c>
       <c r="I46" t="n">
-        <v>16.64504803151559</v>
+        <v>16.6450480315156</v>
       </c>
     </row>
     <row r="47">
@@ -1990,7 +1990,7 @@
         <v>9.641114982578395</v>
       </c>
       <c r="I47" t="n">
-        <v>17.04119592554083</v>
+        <v>17.04119592554084</v>
       </c>
     </row>
     <row r="48">
@@ -2122,7 +2122,7 @@
         <v>13.63636363636364</v>
       </c>
       <c r="I51" t="n">
-        <v>20.44920959271448</v>
+        <v>20.44920959271449</v>
       </c>
     </row>
     <row r="52">
@@ -2155,7 +2155,7 @@
         <v>9.616239442880428</v>
       </c>
       <c r="I52" t="n">
-        <v>17.01997667572301</v>
+        <v>17.01997667572302</v>
       </c>
     </row>
     <row r="53">
@@ -2254,7 +2254,7 @@
         <v>9.651946107784433</v>
       </c>
       <c r="I55" t="n">
-        <v>17.05043505580074</v>
+        <v>17.05043505580075</v>
       </c>
     </row>
     <row r="56">
@@ -2320,7 +2320,7 @@
         <v>9.854851031321621</v>
       </c>
       <c r="I57" t="n">
-        <v>17.22351633621026</v>
+        <v>17.22351633621027</v>
       </c>
     </row>
     <row r="58">
@@ -2353,7 +2353,7 @@
         <v>9.983163315836387</v>
       </c>
       <c r="I58" t="n">
-        <v>17.33296885273343</v>
+        <v>17.33296885273344</v>
       </c>
     </row>
     <row r="59">
@@ -2452,7 +2452,7 @@
         <v>9.114208633093526</v>
       </c>
       <c r="I61" t="n">
-        <v>16.5917360305569</v>
+        <v>16.59173603055691</v>
       </c>
     </row>
     <row r="62">
@@ -2485,7 +2485,7 @@
         <v>11.97305389221557</v>
       </c>
       <c r="I62" t="n">
-        <v>19.030378668279</v>
+        <v>19.03037866827901</v>
       </c>
     </row>
     <row r="63">
@@ -2683,7 +2683,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I68" t="n">
-        <v>17.51264413127097</v>
+        <v>17.51264413127098</v>
       </c>
     </row>
     <row r="69">
@@ -2716,7 +2716,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I69" t="n">
-        <v>17.51264413127097</v>
+        <v>17.51264413127098</v>
       </c>
     </row>
     <row r="70">
@@ -2749,7 +2749,7 @@
         <v>10.27298850574713</v>
       </c>
       <c r="I70" t="n">
-        <v>17.58019456855244</v>
+        <v>17.58019456855245</v>
       </c>
     </row>
     <row r="71">
@@ -2815,7 +2815,7 @@
         <v>10.41108545034642</v>
       </c>
       <c r="I72" t="n">
-        <v>17.69799356315154</v>
+        <v>17.69799356315155</v>
       </c>
     </row>
     <row r="73">
@@ -2980,7 +2980,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I77" t="n">
-        <v>17.55339969403796</v>
+        <v>17.55339969403797</v>
       </c>
     </row>
     <row r="78">
@@ -3046,7 +3046,7 @@
         <v>9.790209790209792</v>
       </c>
       <c r="I79" t="n">
-        <v>17.16837628054352</v>
+        <v>17.16837628054353</v>
       </c>
     </row>
     <row r="80">
@@ -3145,7 +3145,7 @@
         <v>9.424989191526157</v>
       </c>
       <c r="I82" t="n">
-        <v>16.85683702486592</v>
+        <v>16.85683702486593</v>
       </c>
     </row>
     <row r="83">
@@ -3211,7 +3211,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I84" t="n">
-        <v>18.0788572342666</v>
+        <v>18.07885723426661</v>
       </c>
     </row>
     <row r="85">
@@ -3244,7 +3244,7 @@
         <v>10.41666666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>17.70275443366227</v>
+        <v>17.70275443366228</v>
       </c>
     </row>
     <row r="86">
@@ -3376,7 +3376,7 @@
         <v>9.941978986984475</v>
       </c>
       <c r="I89" t="n">
-        <v>17.29783793404387</v>
+        <v>17.29783793404388</v>
       </c>
     </row>
     <row r="90">
@@ -3442,7 +3442,7 @@
         <v>9.497129418274886</v>
       </c>
       <c r="I91" t="n">
-        <v>16.91837384022277</v>
+        <v>16.91837384022278</v>
       </c>
     </row>
     <row r="92">
@@ -3706,7 +3706,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I99" t="n">
-        <v>18.16589450714135</v>
+        <v>18.16589450714136</v>
       </c>
     </row>
     <row r="100">
@@ -3739,7 +3739,7 @@
         <v>9.626446280991736</v>
       </c>
       <c r="I100" t="n">
-        <v>17.02868327868976</v>
+        <v>17.02868327868977</v>
       </c>
     </row>
     <row r="101">
@@ -3772,7 +3772,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I101" t="n">
-        <v>17.64288020565342</v>
+        <v>17.64288020565343</v>
       </c>
     </row>
     <row r="102">
@@ -3805,7 +3805,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I102" t="n">
-        <v>17.64288020565342</v>
+        <v>17.64288020565343</v>
       </c>
     </row>
     <row r="103">
@@ -3838,7 +3838,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I103" t="n">
-        <v>17.64288020565342</v>
+        <v>17.64288020565343</v>
       </c>
     </row>
     <row r="104">
@@ -4036,7 +4036,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I109" t="n">
-        <v>17.55339969403796</v>
+        <v>17.55339969403797</v>
       </c>
     </row>
     <row r="110">
@@ -4135,7 +4135,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I112" t="n">
-        <v>18.0788572342666</v>
+        <v>18.07885723426661</v>
       </c>
     </row>
     <row r="113">
@@ -4168,7 +4168,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I113" t="n">
-        <v>17.11852850168333</v>
+        <v>17.11852850168334</v>
       </c>
     </row>
     <row r="114">
@@ -4201,7 +4201,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I114" t="n">
-        <v>17.11852850168333</v>
+        <v>17.11852850168334</v>
       </c>
     </row>
     <row r="115">
@@ -4333,7 +4333,7 @@
         <v>15.7124243121024</v>
       </c>
       <c r="I118" t="n">
-        <v>22.22012393870797</v>
+        <v>22.22012393870798</v>
       </c>
     </row>
     <row r="119">
@@ -4366,7 +4366,7 @@
         <v>8.769792935444579</v>
       </c>
       <c r="I119" t="n">
-        <v>16.29794370209577</v>
+        <v>16.29794370209578</v>
       </c>
     </row>
     <row r="120">
@@ -4399,7 +4399,7 @@
         <v>9.711649365628602</v>
       </c>
       <c r="I120" t="n">
-        <v>17.10136292946761</v>
+        <v>17.10136292946762</v>
       </c>
     </row>
     <row r="121">
@@ -4465,7 +4465,7 @@
         <v>9.403131115459882</v>
       </c>
       <c r="I122" t="n">
-        <v>16.83819172180039</v>
+        <v>16.8381917218004</v>
       </c>
     </row>
     <row r="123">
@@ -4696,7 +4696,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I129" t="n">
-        <v>18.48394348896882</v>
+        <v>18.48394348896883</v>
       </c>
     </row>
     <row r="130">
@@ -4729,7 +4729,7 @@
         <v>9.620155038759689</v>
       </c>
       <c r="I130" t="n">
-        <v>17.0233167442464</v>
+        <v>17.02331674424641</v>
       </c>
     </row>
     <row r="131">
@@ -4795,7 +4795,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I132" t="n">
-        <v>18.0788572342666</v>
+        <v>18.07885723426661</v>
       </c>
     </row>
     <row r="133">
@@ -4828,7 +4828,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I133" t="n">
-        <v>18.0788572342666</v>
+        <v>18.07885723426661</v>
       </c>
     </row>
     <row r="134">
@@ -5224,7 +5224,7 @@
         <v>9.889737065309584</v>
       </c>
       <c r="I145" t="n">
-        <v>17.25327470444394</v>
+        <v>17.25327470444395</v>
       </c>
     </row>
     <row r="146">
@@ -5389,7 +5389,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I150" t="n">
-        <v>18.16589450714135</v>
+        <v>18.16589450714136</v>
       </c>
     </row>
     <row r="151">
@@ -5455,7 +5455,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I152" t="n">
-        <v>18.16589450714135</v>
+        <v>18.16589450714136</v>
       </c>
     </row>
     <row r="153">
@@ -5620,7 +5620,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I157" t="n">
-        <v>18.16589450714135</v>
+        <v>18.16589450714136</v>
       </c>
     </row>
     <row r="158">
@@ -5719,7 +5719,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I160" t="n">
-        <v>22.36789620651664</v>
+        <v>22.36789620651665</v>
       </c>
     </row>
     <row r="161">
@@ -5752,7 +5752,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I161" t="n">
-        <v>22.36789620651664</v>
+        <v>22.36789620651665</v>
       </c>
     </row>
     <row r="162">
@@ -5884,7 +5884,7 @@
         <v>8.774014656367598</v>
       </c>
       <c r="I165" t="n">
-        <v>16.30154490038189</v>
+        <v>16.3015449003819</v>
       </c>
     </row>
     <row r="166">
@@ -6214,7 +6214,7 @@
         <v>7.847595807220896</v>
       </c>
       <c r="I175" t="n">
-        <v>15.51129418684296</v>
+        <v>15.51129418684297</v>
       </c>
     </row>
     <row r="176">
@@ -6247,7 +6247,7 @@
         <v>9.55023923444976</v>
       </c>
       <c r="I176" t="n">
-        <v>16.96367739829132</v>
+        <v>16.96367739829133</v>
       </c>
     </row>
     <row r="177">
@@ -6379,7 +6379,7 @@
         <v>9.972573175666561</v>
       </c>
       <c r="I180" t="n">
-        <v>17.3239352867245</v>
+        <v>17.32393528672451</v>
       </c>
     </row>
     <row r="181">
@@ -6577,7 +6577,7 @@
         <v>13.00595238095238</v>
       </c>
       <c r="I186" t="n">
-        <v>19.91145828846308</v>
+        <v>19.91145828846309</v>
       </c>
     </row>
     <row r="187">
@@ -6610,7 +6610,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I187" t="n">
-        <v>17.65077548691806</v>
+        <v>17.65077548691807</v>
       </c>
     </row>
     <row r="188">
@@ -6709,7 +6709,7 @@
         <v>7.697813997026595</v>
       </c>
       <c r="I190" t="n">
-        <v>15.38352780720785</v>
+        <v>15.38352780720786</v>
       </c>
     </row>
     <row r="191">
@@ -6808,7 +6808,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I193" t="n">
-        <v>16.96877313497787</v>
+        <v>16.96877313497788</v>
       </c>
     </row>
     <row r="194">
@@ -6841,7 +6841,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I194" t="n">
-        <v>16.96877313497787</v>
+        <v>16.96877313497788</v>
       </c>
     </row>
     <row r="195">
@@ -6874,7 +6874,7 @@
         <v>7.716428084526244</v>
       </c>
       <c r="I195" t="n">
-        <v>15.39940593397742</v>
+        <v>15.39940593397743</v>
       </c>
     </row>
     <row r="196">
@@ -6907,7 +6907,7 @@
         <v>8.830188679245282</v>
       </c>
       <c r="I196" t="n">
-        <v>16.34946227782119</v>
+        <v>16.3494622778212</v>
       </c>
     </row>
     <row r="197">
@@ -6973,7 +6973,7 @@
         <v>11.26593536910762</v>
       </c>
       <c r="I198" t="n">
-        <v>18.42719478664992</v>
+        <v>18.42719478664993</v>
       </c>
     </row>
     <row r="199">
@@ -7105,7 +7105,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I202" t="n">
-        <v>16.68863070039244</v>
+        <v>16.68863070039245</v>
       </c>
     </row>
     <row r="203">
@@ -7138,7 +7138,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I203" t="n">
-        <v>16.68863070039244</v>
+        <v>16.68863070039245</v>
       </c>
     </row>
     <row r="204">
@@ -7171,7 +7171,7 @@
         <v>8.801749271137027</v>
       </c>
       <c r="I204" t="n">
-        <v>16.32520298887119</v>
+        <v>16.3252029888712</v>
       </c>
     </row>
     <row r="205">
@@ -7369,7 +7369,7 @@
         <v>9.887640449438203</v>
       </c>
       <c r="I210" t="n">
-        <v>17.25148625617359</v>
+        <v>17.2514862561736</v>
       </c>
     </row>
     <row r="211">
@@ -7435,7 +7435,7 @@
         <v>8.792609111181905</v>
       </c>
       <c r="I212" t="n">
-        <v>16.31740628014376</v>
+        <v>16.31740628014377</v>
       </c>
     </row>
     <row r="213">
@@ -7864,7 +7864,7 @@
         <v>10.06967022758941</v>
       </c>
       <c r="I225" t="n">
-        <v>17.40676068976464</v>
+        <v>17.40676068976465</v>
       </c>
     </row>
     <row r="226">
@@ -7897,7 +7897,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I226" t="n">
-        <v>17.49571463298565</v>
+        <v>17.49571463298566</v>
       </c>
     </row>
     <row r="227">
@@ -7930,7 +7930,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I227" t="n">
-        <v>17.55836359257975</v>
+        <v>17.55836359257976</v>
       </c>
     </row>
     <row r="228">
@@ -7963,7 +7963,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I228" t="n">
-        <v>17.55836359257975</v>
+        <v>17.55836359257976</v>
       </c>
     </row>
     <row r="229">
@@ -7996,7 +7996,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I229" t="n">
-        <v>17.50229371639454</v>
+        <v>17.50229371639455</v>
       </c>
     </row>
     <row r="230">
@@ -8029,7 +8029,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I230" t="n">
-        <v>17.49571463298565</v>
+        <v>17.49571463298566</v>
       </c>
     </row>
     <row r="231">
@@ -8062,7 +8062,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I231" t="n">
-        <v>17.49571463298565</v>
+        <v>17.49571463298566</v>
       </c>
     </row>
     <row r="232">
@@ -8095,7 +8095,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I232" t="n">
-        <v>17.55836359257975</v>
+        <v>17.55836359257976</v>
       </c>
     </row>
     <row r="233">
@@ -8128,7 +8128,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I233" t="n">
-        <v>17.55836359257975</v>
+        <v>17.55836359257976</v>
       </c>
     </row>
     <row r="234">
@@ -8161,7 +8161,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I234" t="n">
-        <v>17.55836359257975</v>
+        <v>17.55836359257976</v>
       </c>
     </row>
     <row r="235">
@@ -8194,7 +8194,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I235" t="n">
-        <v>17.50229371639454</v>
+        <v>17.50229371639455</v>
       </c>
     </row>
     <row r="236">
@@ -8491,7 +8491,7 @@
         <v>10.32303370786517</v>
       </c>
       <c r="I244" t="n">
-        <v>17.62288395977047</v>
+        <v>17.62288395977048</v>
       </c>
     </row>
     <row r="245">
@@ -8623,7 +8623,7 @@
         <v>9.868354430379746</v>
       </c>
       <c r="I248" t="n">
-        <v>17.23503496058919</v>
+        <v>17.2350349605892</v>
       </c>
     </row>
     <row r="249">
@@ -8953,7 +8953,7 @@
         <v>8.505354648455688</v>
       </c>
       <c r="I258" t="n">
-        <v>16.07237343744446</v>
+        <v>16.07237343744447</v>
       </c>
     </row>
     <row r="259">
@@ -8986,7 +8986,7 @@
         <v>9.20569031867514</v>
       </c>
       <c r="I259" t="n">
-        <v>16.66977143254942</v>
+        <v>16.66977143254943</v>
       </c>
     </row>
     <row r="260">
@@ -9019,7 +9019,7 @@
         <v>10.00848176420695</v>
       </c>
       <c r="I260" t="n">
-        <v>17.35456591102835</v>
+        <v>17.35456591102836</v>
       </c>
     </row>
     <row r="261">
@@ -9052,7 +9052,7 @@
         <v>9.217413837781811</v>
       </c>
       <c r="I261" t="n">
-        <v>16.67977178967489</v>
+        <v>16.6797717896749</v>
       </c>
     </row>
     <row r="262">
@@ -9250,7 +9250,7 @@
         <v>10.77579637250419</v>
       </c>
       <c r="I267" t="n">
-        <v>18.00909805626077</v>
+        <v>18.00909805626078</v>
       </c>
     </row>
     <row r="268">
@@ -9316,7 +9316,7 @@
         <v>10.11441647597254</v>
       </c>
       <c r="I269" t="n">
-        <v>17.44492998516005</v>
+        <v>17.44492998516006</v>
       </c>
     </row>
     <row r="270">
@@ -9382,7 +9382,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I271" t="n">
-        <v>16.92828017531251</v>
+        <v>16.92828017531252</v>
       </c>
     </row>
     <row r="272">
@@ -9415,7 +9415,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I272" t="n">
-        <v>16.92828017531251</v>
+        <v>16.92828017531252</v>
       </c>
     </row>
     <row r="273">
@@ -9448,7 +9448,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I273" t="n">
-        <v>16.92828017531251</v>
+        <v>16.92828017531252</v>
       </c>
     </row>
     <row r="274">
@@ -9481,7 +9481,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I274" t="n">
-        <v>16.92828017531251</v>
+        <v>16.92828017531252</v>
       </c>
     </row>
     <row r="275">
@@ -9514,7 +9514,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I275" t="n">
-        <v>16.83709604959886</v>
+        <v>16.83709604959887</v>
       </c>
     </row>
     <row r="276">
@@ -9547,7 +9547,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I276" t="n">
-        <v>16.83709604959886</v>
+        <v>16.83709604959887</v>
       </c>
     </row>
     <row r="277">
@@ -9580,7 +9580,7 @@
         <v>9.222198414398973</v>
       </c>
       <c r="I277" t="n">
-        <v>16.68385311324595</v>
+        <v>16.68385311324596</v>
       </c>
     </row>
     <row r="278">
@@ -9613,7 +9613,7 @@
         <v>9.284633671925654</v>
       </c>
       <c r="I278" t="n">
-        <v>16.7371114281603</v>
+        <v>16.73711142816031</v>
       </c>
     </row>
     <row r="279">
@@ -9679,7 +9679,7 @@
         <v>16.70454545454545</v>
       </c>
       <c r="I280" t="n">
-        <v>23.0664198031054</v>
+        <v>23.06641980310541</v>
       </c>
     </row>
     <row r="281">
@@ -9712,7 +9712,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I281" t="n">
-        <v>17.40311773094893</v>
+        <v>17.40311773094894</v>
       </c>
     </row>
     <row r="282">
@@ -9745,7 +9745,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I282" t="n">
-        <v>17.40311773094893</v>
+        <v>17.40311773094894</v>
       </c>
     </row>
     <row r="283">
@@ -9778,7 +9778,7 @@
         <v>9.616279069767442</v>
       </c>
       <c r="I283" t="n">
-        <v>17.02001047811786</v>
+        <v>17.02001047811787</v>
       </c>
     </row>
     <row r="284">
@@ -9844,7 +9844,7 @@
         <v>10.74262461851475</v>
       </c>
       <c r="I285" t="n">
-        <v>17.98080199742773</v>
+        <v>17.98080199742774</v>
       </c>
     </row>
     <row r="286">
@@ -9877,7 +9877,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I286" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="287">
@@ -9910,7 +9910,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I287" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="288">
@@ -9943,7 +9943,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I288" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="289">
@@ -9976,7 +9976,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I289" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="290">
@@ -10009,7 +10009,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I290" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="291">
@@ -10042,7 +10042,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I291" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="292">
@@ -10075,7 +10075,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I292" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="293">
@@ -10108,7 +10108,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I293" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="294">
@@ -10141,7 +10141,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I294" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="295">
@@ -10174,7 +10174,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I295" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="296">
@@ -10207,7 +10207,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I296" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="297">
@@ -10240,7 +10240,7 @@
         <v>9.397212963334807</v>
       </c>
       <c r="I297" t="n">
-        <v>16.8331434394344</v>
+        <v>16.83314343943441</v>
       </c>
     </row>
     <row r="298">
@@ -10273,7 +10273,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I298" t="n">
-        <v>18.23004046474161</v>
+        <v>18.23004046474162</v>
       </c>
     </row>
     <row r="299">
@@ -10306,7 +10306,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I299" t="n">
-        <v>18.23004046474161</v>
+        <v>18.23004046474162</v>
       </c>
     </row>
     <row r="300">
@@ -10339,7 +10339,7 @@
         <v>10.07868115399026</v>
       </c>
       <c r="I300" t="n">
-        <v>17.41444716011709</v>
+        <v>17.4144471601171</v>
       </c>
     </row>
     <row r="301">
@@ -10372,7 +10372,7 @@
         <v>10.19579405366207</v>
       </c>
       <c r="I301" t="n">
-        <v>17.51434641477443</v>
+        <v>17.51434641477444</v>
       </c>
     </row>
     <row r="302">
@@ -10438,7 +10438,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I303" t="n">
-        <v>17.27701847360502</v>
+        <v>17.27701847360503</v>
       </c>
     </row>
     <row r="304">
@@ -10471,7 +10471,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I304" t="n">
-        <v>17.27701847360502</v>
+        <v>17.27701847360503</v>
       </c>
     </row>
     <row r="305">
@@ -10504,7 +10504,7 @@
         <v>9.625315899351719</v>
       </c>
       <c r="I305" t="n">
-        <v>17.02771904431735</v>
+        <v>17.02771904431736</v>
       </c>
     </row>
     <row r="306">
@@ -10537,7 +10537,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I306" t="n">
-        <v>17.66083267467342</v>
+        <v>17.66083267467343</v>
       </c>
     </row>
     <row r="307">
@@ -10570,7 +10570,7 @@
         <v>9.52991452991453</v>
       </c>
       <c r="I307" t="n">
-        <v>16.94634008668952</v>
+        <v>16.94634008668953</v>
       </c>
     </row>
     <row r="308">
@@ -10603,7 +10603,7 @@
         <v>9.496056261413528</v>
       </c>
       <c r="I308" t="n">
-        <v>16.91745841953999</v>
+        <v>16.91745841954</v>
       </c>
     </row>
     <row r="309">
@@ -10669,7 +10669,7 @@
         <v>9.975359342915811</v>
       </c>
       <c r="I310" t="n">
-        <v>17.3263119338089</v>
+        <v>17.32631193380891</v>
       </c>
     </row>
     <row r="311">
@@ -10702,7 +10702,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I311" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="312">
@@ -10735,7 +10735,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I312" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="313">
@@ -10768,7 +10768,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I313" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="314">
@@ -10801,7 +10801,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I314" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="315">
@@ -10834,7 +10834,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I315" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="316">
@@ -10867,7 +10867,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I316" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="317">
@@ -10900,7 +10900,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I317" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="318">
@@ -10933,7 +10933,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I318" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="319">
@@ -10966,7 +10966,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I319" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="320">
@@ -10999,7 +10999,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I320" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="321">
@@ -11032,7 +11032,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I321" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="322">
@@ -11065,7 +11065,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I322" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="323">
@@ -11098,7 +11098,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I323" t="n">
-        <v>17.90242403927531</v>
+        <v>17.90242403927532</v>
       </c>
     </row>
     <row r="324">
@@ -11197,7 +11197,7 @@
         <v>9.545115585384041</v>
       </c>
       <c r="I326" t="n">
-        <v>16.9593068402723</v>
+        <v>16.95930684027231</v>
       </c>
     </row>
     <row r="327">
@@ -11263,7 +11263,7 @@
         <v>9.298765904525016</v>
       </c>
       <c r="I328" t="n">
-        <v>16.74916645802701</v>
+        <v>16.74916645802702</v>
       </c>
     </row>
     <row r="329">
@@ -11329,7 +11329,7 @@
         <v>11.86688311688312</v>
       </c>
       <c r="I330" t="n">
-        <v>18.93981322799167</v>
+        <v>18.93981322799168</v>
       </c>
     </row>
     <row r="331">
@@ -11494,7 +11494,7 @@
         <v>9.484140815615197</v>
       </c>
       <c r="I335" t="n">
-        <v>16.90729434574881</v>
+        <v>16.90729434574882</v>
       </c>
     </row>
     <row r="336">
@@ -11527,7 +11527,7 @@
         <v>11.02265768524189</v>
       </c>
       <c r="I336" t="n">
-        <v>18.21967486902295</v>
+        <v>18.21967486902296</v>
       </c>
     </row>
     <row r="337">
@@ -11659,7 +11659,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I340" t="n">
-        <v>14.97471861459892</v>
+        <v>14.97471861459893</v>
       </c>
     </row>
     <row r="341">
@@ -11692,7 +11692,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I341" t="n">
-        <v>14.97471861459892</v>
+        <v>14.97471861459893</v>
       </c>
     </row>
     <row r="342">
@@ -11791,7 +11791,7 @@
         <v>10.11673151750973</v>
       </c>
       <c r="I344" t="n">
-        <v>17.44690475416256</v>
+        <v>17.44690475416257</v>
       </c>
     </row>
     <row r="345">
@@ -11824,7 +11824,7 @@
         <v>9.451438848920862</v>
       </c>
       <c r="I345" t="n">
-        <v>16.8793990233057</v>
+        <v>16.87939902330571</v>
       </c>
     </row>
     <row r="346">
@@ -11857,7 +11857,7 @@
         <v>8.454598370197905</v>
       </c>
       <c r="I346" t="n">
-        <v>16.02907748643187</v>
+        <v>16.02907748643188</v>
       </c>
     </row>
     <row r="347">
@@ -11890,7 +11890,7 @@
         <v>9.73847977478145</v>
       </c>
       <c r="I347" t="n">
-        <v>17.12424971550085</v>
+        <v>17.12424971550086</v>
       </c>
     </row>
     <row r="348">
@@ -11989,7 +11989,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I350" t="n">
-        <v>18.48394348896882</v>
+        <v>18.48394348896883</v>
       </c>
     </row>
     <row r="351">
@@ -12022,7 +12022,7 @@
         <v>7.35605170387779</v>
       </c>
       <c r="I351" t="n">
-        <v>15.09199887699415</v>
+        <v>15.09199887699416</v>
       </c>
     </row>
     <row r="352">
@@ -12121,7 +12121,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I354" t="n">
-        <v>17.22119215590849</v>
+        <v>17.2211921559085</v>
       </c>
     </row>
     <row r="355">
@@ -12154,7 +12154,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I355" t="n">
-        <v>17.22119215590849</v>
+        <v>17.2211921559085</v>
       </c>
     </row>
     <row r="356">
@@ -12187,7 +12187,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I356" t="n">
-        <v>18.10169930070347</v>
+        <v>18.10169930070348</v>
       </c>
     </row>
     <row r="357">
@@ -12220,7 +12220,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I357" t="n">
-        <v>18.10169930070347</v>
+        <v>18.10169930070348</v>
       </c>
     </row>
     <row r="358">
@@ -12253,7 +12253,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I358" t="n">
-        <v>14.97471861459892</v>
+        <v>14.97471861459893</v>
       </c>
     </row>
     <row r="359">
@@ -12286,7 +12286,7 @@
         <v>9.594502884289108</v>
       </c>
       <c r="I359" t="n">
-        <v>17.00143502908823</v>
+        <v>17.00143502908824</v>
       </c>
     </row>
     <row r="360">
@@ -12319,7 +12319,7 @@
         <v>9.597556210705786</v>
       </c>
       <c r="I360" t="n">
-        <v>17.00403956739363</v>
+        <v>17.00403956739364</v>
       </c>
     </row>
     <row r="361">
@@ -12352,7 +12352,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I361" t="n">
-        <v>18.48394348896882</v>
+        <v>18.48394348896883</v>
       </c>
     </row>
     <row r="362">
@@ -12451,7 +12451,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I364" t="n">
-        <v>23.73926261350472</v>
+        <v>23.73926261350473</v>
       </c>
     </row>
     <row r="365">
@@ -12484,7 +12484,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I365" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="366">
@@ -12517,7 +12517,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I366" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="367">
@@ -12550,7 +12550,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I367" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="368">
@@ -12583,7 +12583,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I368" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="369">
@@ -12616,7 +12616,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I369" t="n">
-        <v>17.3844454003839</v>
+        <v>17.38444540038391</v>
       </c>
     </row>
     <row r="370">
@@ -12649,7 +12649,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I370" t="n">
-        <v>17.3844454003839</v>
+        <v>17.38444540038391</v>
       </c>
     </row>
     <row r="371">
@@ -12715,7 +12715,7 @@
         <v>9.674157303370787</v>
       </c>
       <c r="I372" t="n">
-        <v>17.06938157570028</v>
+        <v>17.06938157570029</v>
       </c>
     </row>
     <row r="373">
@@ -12748,7 +12748,7 @@
         <v>10.43461970775572</v>
       </c>
       <c r="I373" t="n">
-        <v>17.7180686768298</v>
+        <v>17.71806867682981</v>
       </c>
     </row>
     <row r="374">
@@ -12847,7 +12847,7 @@
         <v>7.441946185035016</v>
       </c>
       <c r="I376" t="n">
-        <v>15.16526830052334</v>
+        <v>15.16526830052335</v>
       </c>
     </row>
     <row r="377">
@@ -12880,7 +12880,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I377" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="378">
@@ -12913,7 +12913,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I378" t="n">
-        <v>15.06349398709772</v>
+        <v>15.06349398709773</v>
       </c>
     </row>
     <row r="379">
@@ -13078,7 +13078,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I383" t="n">
-        <v>17.58111613605537</v>
+        <v>17.58111613605538</v>
       </c>
     </row>
     <row r="384">
@@ -13111,7 +13111,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I384" t="n">
-        <v>17.58111613605537</v>
+        <v>17.58111613605538</v>
       </c>
     </row>
     <row r="385">
@@ -13177,7 +13177,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I386" t="n">
-        <v>18.56627819934403</v>
+        <v>18.56627819934404</v>
       </c>
     </row>
     <row r="387">
@@ -13210,7 +13210,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I387" t="n">
-        <v>18.56627819934403</v>
+        <v>18.56627819934404</v>
       </c>
     </row>
     <row r="388">
@@ -13243,7 +13243,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I388" t="n">
-        <v>15.16189763753325</v>
+        <v>15.16189763753326</v>
       </c>
     </row>
     <row r="389">
@@ -13276,7 +13276,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I389" t="n">
-        <v>15.16189763753325</v>
+        <v>15.16189763753326</v>
       </c>
     </row>
     <row r="390">
@@ -13309,7 +13309,7 @@
         <v>7.414806110458285</v>
       </c>
       <c r="I390" t="n">
-        <v>15.14211736472414</v>
+        <v>15.14211736472415</v>
       </c>
     </row>
     <row r="391">
@@ -13441,7 +13441,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I394" t="n">
-        <v>18.4739566037402</v>
+        <v>18.47395660374021</v>
       </c>
     </row>
     <row r="395">
@@ -13474,7 +13474,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I395" t="n">
-        <v>18.4739566037402</v>
+        <v>18.47395660374021</v>
       </c>
     </row>
     <row r="396">
@@ -13507,7 +13507,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I396" t="n">
-        <v>17.0286028688531</v>
+        <v>17.02860286885311</v>
       </c>
     </row>
     <row r="397">
@@ -13540,7 +13540,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I397" t="n">
-        <v>17.0286028688531</v>
+        <v>17.02860286885311</v>
       </c>
     </row>
     <row r="398">
@@ -13672,7 +13672,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I401" t="n">
-        <v>15.16189763753325</v>
+        <v>15.16189763753326</v>
       </c>
     </row>
     <row r="402">
@@ -13705,7 +13705,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I402" t="n">
-        <v>18.4739566037402</v>
+        <v>18.47395660374021</v>
       </c>
     </row>
     <row r="403">
@@ -13771,7 +13771,7 @@
         <v>8.030684680558736</v>
       </c>
       <c r="I404" t="n">
-        <v>15.66747204627396</v>
+        <v>15.66747204627397</v>
       </c>
     </row>
     <row r="405">
@@ -13804,7 +13804,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I405" t="n">
-        <v>17.65077548691806</v>
+        <v>17.65077548691807</v>
       </c>
     </row>
     <row r="406">
@@ -13837,7 +13837,7 @@
         <v>7.493549576115002</v>
       </c>
       <c r="I406" t="n">
-        <v>15.20928685288715</v>
+        <v>15.20928685288716</v>
       </c>
     </row>
     <row r="407">
@@ -13870,7 +13870,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I407" t="n">
-        <v>18.3483583580459</v>
+        <v>18.34835835804591</v>
       </c>
     </row>
     <row r="408">
@@ -13903,7 +13903,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I408" t="n">
-        <v>18.3483583580459</v>
+        <v>18.34835835804591</v>
       </c>
     </row>
     <row r="409">
@@ -13936,7 +13936,7 @@
         <v>9.694926140012846</v>
       </c>
       <c r="I409" t="n">
-        <v>17.08709773938896</v>
+        <v>17.08709773938897</v>
       </c>
     </row>
     <row r="410">
@@ -13969,7 +13969,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I410" t="n">
-        <v>18.68900970706608</v>
+        <v>18.68900970706609</v>
       </c>
     </row>
     <row r="411">
@@ -14002,7 +14002,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I411" t="n">
-        <v>18.68900970706608</v>
+        <v>18.68900970706609</v>
       </c>
     </row>
     <row r="412">
@@ -14035,7 +14035,7 @@
         <v>7.600671140939597</v>
       </c>
       <c r="I412" t="n">
-        <v>15.30066333245254</v>
+        <v>15.30066333245255</v>
       </c>
     </row>
     <row r="413">
@@ -14200,7 +14200,7 @@
         <v>9.412019022913965</v>
       </c>
       <c r="I417" t="n">
-        <v>16.84577325494161</v>
+        <v>16.84577325494162</v>
       </c>
     </row>
     <row r="418">
@@ -14530,7 +14530,7 @@
         <v>8.035284683239775</v>
       </c>
       <c r="I427" t="n">
-        <v>15.67139592520229</v>
+        <v>15.6713959252023</v>
       </c>
     </row>
     <row r="428">
@@ -14596,7 +14596,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I429" t="n">
-        <v>15.59983141481936</v>
+        <v>15.59983141481937</v>
       </c>
     </row>
     <row r="430">
@@ -14629,7 +14629,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I430" t="n">
-        <v>15.59983141481936</v>
+        <v>15.59983141481937</v>
       </c>
     </row>
     <row r="431">
@@ -14695,7 +14695,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I432" t="n">
-        <v>15.68709705479214</v>
+        <v>15.68709705479215</v>
       </c>
     </row>
     <row r="433">
@@ -14728,7 +14728,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I433" t="n">
-        <v>15.68709705479214</v>
+        <v>15.68709705479215</v>
       </c>
     </row>
     <row r="434">
@@ -14959,7 +14959,7 @@
         <v>7.709750566893424</v>
       </c>
       <c r="I440" t="n">
-        <v>15.39370990018141</v>
+        <v>15.39370990018142</v>
       </c>
     </row>
     <row r="441">
@@ -15091,7 +15091,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I444" t="n">
-        <v>15.79095953179187</v>
+        <v>15.79095953179188</v>
       </c>
     </row>
     <row r="445">
@@ -15124,7 +15124,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I445" t="n">
-        <v>15.79095953179187</v>
+        <v>15.79095953179188</v>
       </c>
     </row>
     <row r="446">
@@ -15157,7 +15157,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I446" t="n">
-        <v>15.32356310859118</v>
+        <v>15.32356310859119</v>
       </c>
     </row>
     <row r="447">
@@ -15190,7 +15190,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I447" t="n">
-        <v>15.32356310859118</v>
+        <v>15.32356310859119</v>
       </c>
     </row>
     <row r="448">
@@ -15223,7 +15223,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I448" t="n">
-        <v>15.32356310859118</v>
+        <v>15.32356310859119</v>
       </c>
     </row>
     <row r="449">
@@ -15586,7 +15586,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I459" t="n">
-        <v>15.39575360504156</v>
+        <v>15.39575360504157</v>
       </c>
     </row>
     <row r="460">
@@ -15619,7 +15619,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I460" t="n">
-        <v>15.39575360504156</v>
+        <v>15.39575360504157</v>
       </c>
     </row>
     <row r="461">
@@ -15685,7 +15685,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I462" t="n">
-        <v>14.43409241754866</v>
+        <v>14.43409241754867</v>
       </c>
     </row>
     <row r="463">
@@ -15718,7 +15718,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I463" t="n">
-        <v>14.43409241754866</v>
+        <v>14.43409241754867</v>
       </c>
     </row>
     <row r="464">
@@ -15751,7 +15751,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I464" t="n">
-        <v>14.43409241754866</v>
+        <v>14.43409241754867</v>
       </c>
     </row>
     <row r="465">
@@ -15784,7 +15784,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I465" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="466">
@@ -15817,7 +15817,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I466" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="467">
@@ -15850,7 +15850,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I467" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="468">
@@ -15883,7 +15883,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I468" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="469">
@@ -15916,7 +15916,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I469" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="470">
@@ -15949,7 +15949,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I470" t="n">
-        <v>15.75348253253167</v>
+        <v>15.75348253253168</v>
       </c>
     </row>
     <row r="471">
@@ -16081,7 +16081,7 @@
         <v>7.880091070073362</v>
       </c>
       <c r="I474" t="n">
-        <v>15.53901318746503</v>
+        <v>15.53901318746504</v>
       </c>
     </row>
     <row r="475">
@@ -16345,7 +16345,7 @@
         <v>8.016493384938403</v>
       </c>
       <c r="I482" t="n">
-        <v>15.65536663466631</v>
+        <v>15.65536663466632</v>
       </c>
     </row>
     <row r="483">
@@ -16675,7 +16675,7 @@
         <v>7.939624853458383</v>
       </c>
       <c r="I492" t="n">
-        <v>15.58979649659461</v>
+        <v>15.58979649659462</v>
       </c>
     </row>
     <row r="493">
@@ -16708,7 +16708,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I493" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="494">
@@ -16741,7 +16741,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I494" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="495">
@@ -16774,7 +16774,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I495" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="496">
@@ -16807,7 +16807,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I496" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="497">
@@ -16840,7 +16840,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I497" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="498">
@@ -16873,7 +16873,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I498" t="n">
-        <v>14.48363709314246</v>
+        <v>14.48363709314247</v>
       </c>
     </row>
     <row r="499">
@@ -16972,7 +16972,7 @@
         <v>6.764670883911805</v>
       </c>
       <c r="I501" t="n">
-        <v>14.58754118447007</v>
+        <v>14.58754118447008</v>
       </c>
     </row>
     <row r="502">
@@ -17005,7 +17005,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I502" t="n">
-        <v>14.42305809340661</v>
+        <v>14.42305809340662</v>
       </c>
     </row>
     <row r="503">
@@ -17038,7 +17038,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I503" t="n">
-        <v>14.42305809340661</v>
+        <v>14.42305809340662</v>
       </c>
     </row>
     <row r="504">
@@ -17071,7 +17071,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I504" t="n">
-        <v>14.42305809340661</v>
+        <v>14.42305809340662</v>
       </c>
     </row>
     <row r="505">
@@ -17104,7 +17104,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I505" t="n">
-        <v>15.74299727080525</v>
+        <v>15.74299727080526</v>
       </c>
     </row>
     <row r="506">
@@ -17137,7 +17137,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I506" t="n">
-        <v>15.74299727080525</v>
+        <v>15.74299727080526</v>
       </c>
     </row>
     <row r="507">
@@ -17170,7 +17170,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I507" t="n">
-        <v>15.79641730627952</v>
+        <v>15.79641730627953</v>
       </c>
     </row>
     <row r="508">
@@ -17203,7 +17203,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I508" t="n">
-        <v>15.79641730627952</v>
+        <v>15.79641730627953</v>
       </c>
     </row>
     <row r="509">
@@ -17236,7 +17236,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I509" t="n">
-        <v>15.79641730627952</v>
+        <v>15.79641730627953</v>
       </c>
     </row>
     <row r="510">
@@ -17269,7 +17269,7 @@
         <v>8.164924784158037</v>
       </c>
       <c r="I510" t="n">
-        <v>15.78198109124061</v>
+        <v>15.78198109124062</v>
       </c>
     </row>
     <row r="511">
@@ -17500,7 +17500,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I517" t="n">
-        <v>14.58741449245177</v>
+        <v>14.58741449245178</v>
       </c>
     </row>
     <row r="518">
@@ -17533,7 +17533,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I518" t="n">
-        <v>14.58741449245177</v>
+        <v>14.58741449245178</v>
       </c>
     </row>
     <row r="519">
@@ -17566,7 +17566,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I519" t="n">
-        <v>14.58741449245177</v>
+        <v>14.58741449245178</v>
       </c>
     </row>
     <row r="520">
@@ -17764,7 +17764,7 @@
         <v>8.237251593550807</v>
       </c>
       <c r="I525" t="n">
-        <v>15.84367706470151</v>
+        <v>15.84367706470152</v>
       </c>
     </row>
     <row r="526">
@@ -18061,7 +18061,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I534" t="n">
-        <v>14.42318094694356</v>
+        <v>14.42318094694357</v>
       </c>
     </row>
     <row r="535">
@@ -18094,7 +18094,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I535" t="n">
-        <v>14.42318094694356</v>
+        <v>14.42318094694357</v>
       </c>
     </row>
     <row r="536">
@@ -18127,7 +18127,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I536" t="n">
-        <v>14.42318094694356</v>
+        <v>14.42318094694357</v>
       </c>
     </row>
     <row r="537">
@@ -18391,7 +18391,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I544" t="n">
-        <v>14.9071090329554</v>
+        <v>14.90710903295541</v>
       </c>
     </row>
     <row r="545">
@@ -18424,7 +18424,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I545" t="n">
-        <v>14.9071090329554</v>
+        <v>14.90710903295541</v>
       </c>
     </row>
     <row r="546">
@@ -18457,7 +18457,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I546" t="n">
-        <v>14.9071090329554</v>
+        <v>14.90710903295541</v>
       </c>
     </row>
     <row r="547">
@@ -18490,7 +18490,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I547" t="n">
-        <v>14.9071090329554</v>
+        <v>14.90710903295541</v>
       </c>
     </row>
     <row r="548">
@@ -18556,7 +18556,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I549" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="550">
@@ -18589,7 +18589,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I550" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="551">
@@ -18622,7 +18622,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I551" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="552">
@@ -18655,7 +18655,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I552" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="553">
@@ -18688,7 +18688,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I553" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="554">
@@ -18721,7 +18721,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I554" t="n">
-        <v>14.74217809404684</v>
+        <v>14.74217809404685</v>
       </c>
     </row>
     <row r="555">
@@ -18754,7 +18754,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I555" t="n">
-        <v>15.01020919755512</v>
+        <v>15.01020919755513</v>
       </c>
     </row>
     <row r="556">
@@ -18787,7 +18787,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I556" t="n">
-        <v>15.01020919755512</v>
+        <v>15.01020919755513</v>
       </c>
     </row>
     <row r="557">
@@ -18820,7 +18820,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I557" t="n">
-        <v>15.01020919755512</v>
+        <v>15.01020919755513</v>
       </c>
     </row>
     <row r="558">
@@ -18853,7 +18853,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I558" t="n">
-        <v>15.01020919755512</v>
+        <v>15.01020919755513</v>
       </c>
     </row>
     <row r="559">
@@ -18886,7 +18886,7 @@
         <v>7.776814108123736</v>
       </c>
       <c r="I559" t="n">
-        <v>15.45091621820755</v>
+        <v>15.45091621820756</v>
       </c>
     </row>
     <row r="560">
@@ -18952,7 +18952,7 @@
         <v>10.0089928057554</v>
       </c>
       <c r="I561" t="n">
-        <v>17.35500183798372</v>
+        <v>17.35500183798373</v>
       </c>
     </row>
     <row r="562">
@@ -19084,7 +19084,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I565" t="n">
-        <v>14.82978733645936</v>
+        <v>14.82978733645937</v>
       </c>
     </row>
     <row r="566">
@@ -19117,7 +19117,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I566" t="n">
-        <v>14.82978733645936</v>
+        <v>14.82978733645937</v>
       </c>
     </row>
     <row r="567">
@@ -19150,7 +19150,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I567" t="n">
-        <v>14.82978733645936</v>
+        <v>14.82978733645937</v>
       </c>
     </row>
     <row r="568">
@@ -19183,7 +19183,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I568" t="n">
-        <v>14.82978733645936</v>
+        <v>14.82978733645937</v>
       </c>
     </row>
     <row r="569">
@@ -19216,7 +19216,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I569" t="n">
-        <v>14.79260154218829</v>
+        <v>14.7926015421883</v>
       </c>
     </row>
     <row r="570">
@@ -19249,7 +19249,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I570" t="n">
-        <v>14.79260154218829</v>
+        <v>14.7926015421883</v>
       </c>
     </row>
     <row r="571">
@@ -19282,7 +19282,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I571" t="n">
-        <v>14.79260154218829</v>
+        <v>14.7926015421883</v>
       </c>
     </row>
     <row r="572">
@@ -19447,7 +19447,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I576" t="n">
-        <v>17.95166043983795</v>
+        <v>17.95166043983796</v>
       </c>
     </row>
     <row r="577">
@@ -19513,7 +19513,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I578" t="n">
-        <v>17.95166043983795</v>
+        <v>17.95166043983796</v>
       </c>
     </row>
     <row r="579">
@@ -19645,7 +19645,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I582" t="n">
-        <v>16.89793668140102</v>
+        <v>16.89793668140103</v>
       </c>
     </row>
     <row r="583">
@@ -19678,7 +19678,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I583" t="n">
-        <v>16.89793668140102</v>
+        <v>16.89793668140103</v>
       </c>
     </row>
     <row r="584">
@@ -19744,7 +19744,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I585" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="586">
@@ -19777,7 +19777,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I586" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="587">
@@ -19810,7 +19810,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I587" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="588">
@@ -19876,7 +19876,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I589" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="590">
@@ -19909,7 +19909,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I590" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="591">
@@ -19942,7 +19942,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I591" t="n">
-        <v>16.92971614032081</v>
+        <v>16.92971614032082</v>
       </c>
     </row>
     <row r="592">
@@ -19975,7 +19975,7 @@
         <v>10.28007972306724</v>
       </c>
       <c r="I592" t="n">
-        <v>17.58624349507443</v>
+        <v>17.58624349507444</v>
       </c>
     </row>
     <row r="593">
@@ -20008,7 +20008,7 @@
         <v>8.488063660477454</v>
       </c>
       <c r="I593" t="n">
-        <v>16.05762393661103</v>
+        <v>16.05762393661104</v>
       </c>
     </row>
     <row r="594">
@@ -20041,7 +20041,7 @@
         <v>10.78779276082328</v>
       </c>
       <c r="I594" t="n">
-        <v>18.01933117537075</v>
+        <v>18.01933117537076</v>
       </c>
     </row>
     <row r="595">
@@ -20107,7 +20107,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I596" t="n">
-        <v>18.11966836053287</v>
+        <v>18.11966836053288</v>
       </c>
     </row>
     <row r="597">
@@ -20239,7 +20239,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I600" t="n">
-        <v>18.1363140637224</v>
+        <v>18.13631406372241</v>
       </c>
     </row>
     <row r="601">
@@ -20272,7 +20272,7 @@
         <v>11.06417026724276</v>
       </c>
       <c r="I601" t="n">
-        <v>18.25508579311765</v>
+        <v>18.25508579311766</v>
       </c>
     </row>
     <row r="602">
@@ -20338,7 +20338,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I603" t="n">
-        <v>18.1363140637224</v>
+        <v>18.13631406372241</v>
       </c>
     </row>
     <row r="604">
@@ -20404,7 +20404,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I605" t="n">
-        <v>18.11966836053287</v>
+        <v>18.11966836053288</v>
       </c>
     </row>
     <row r="606">
@@ -20503,7 +20503,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I608" t="n">
-        <v>18.1363140637224</v>
+        <v>18.13631406372241</v>
       </c>
     </row>
     <row r="609">
@@ -20569,7 +20569,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I610" t="n">
-        <v>18.1363140637224</v>
+        <v>18.13631406372241</v>
       </c>
     </row>
     <row r="611">
@@ -20767,7 +20767,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I616" t="n">
-        <v>17.31526252931125</v>
+        <v>17.31526252931126</v>
       </c>
     </row>
     <row r="617">
@@ -20800,7 +20800,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I617" t="n">
-        <v>17.31526252931125</v>
+        <v>17.31526252931126</v>
       </c>
     </row>
     <row r="618">
@@ -20833,7 +20833,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I618" t="n">
-        <v>17.31526252931125</v>
+        <v>17.31526252931126</v>
       </c>
     </row>
     <row r="619">
@@ -21163,7 +21163,7 @@
         <v>9.710843373493978</v>
       </c>
       <c r="I628" t="n">
-        <v>17.10067540474801</v>
+        <v>17.10067540474802</v>
       </c>
     </row>
     <row r="629">
@@ -21427,7 +21427,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I636" t="n">
-        <v>14.8554675973145</v>
+        <v>14.85546759731451</v>
       </c>
     </row>
     <row r="637">
@@ -21460,7 +21460,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I637" t="n">
-        <v>14.8554675973145</v>
+        <v>14.85546759731451</v>
       </c>
     </row>
     <row r="638">
@@ -21493,7 +21493,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I638" t="n">
-        <v>14.8554675973145</v>
+        <v>14.85546759731451</v>
       </c>
     </row>
     <row r="639">
@@ -21526,7 +21526,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I639" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="640">
@@ -21559,7 +21559,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I640" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="641">
@@ -21592,7 +21592,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I641" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="642">
@@ -21625,7 +21625,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I642" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="643">
@@ -21658,7 +21658,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I643" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="644">
@@ -21691,7 +21691,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I644" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="645">
@@ -21724,7 +21724,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I645" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="646">
@@ -21757,7 +21757,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I646" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="647">
@@ -21790,7 +21790,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I647" t="n">
-        <v>14.93717424326611</v>
+        <v>14.93717424326612</v>
       </c>
     </row>
     <row r="648">
@@ -22087,7 +22087,7 @@
         <v>7.115671641791045</v>
       </c>
       <c r="I656" t="n">
-        <v>14.88695067902241</v>
+        <v>14.88695067902242</v>
       </c>
     </row>
     <row r="657">
@@ -22120,7 +22120,7 @@
         <v>7.134328358208955</v>
       </c>
       <c r="I657" t="n">
-        <v>14.90286516896951</v>
+        <v>14.90286516896952</v>
       </c>
     </row>
     <row r="658">
@@ -22153,7 +22153,7 @@
         <v>8.565965583173996</v>
       </c>
       <c r="I658" t="n">
-        <v>16.12407557460793</v>
+        <v>16.12407557460794</v>
       </c>
     </row>
     <row r="659">
@@ -22219,7 +22219,7 @@
         <v>9.97751124437781</v>
       </c>
       <c r="I660" t="n">
-        <v>17.32814754160917</v>
+        <v>17.32814754160918</v>
       </c>
     </row>
     <row r="661">
@@ -22252,7 +22252,7 @@
         <v>10.14513375071144</v>
       </c>
       <c r="I661" t="n">
-        <v>17.4711323322979</v>
+        <v>17.47113233229791</v>
       </c>
     </row>
     <row r="662">
@@ -22351,7 +22351,7 @@
         <v>10.72036905606813</v>
       </c>
       <c r="I664" t="n">
-        <v>17.96181763185718</v>
+        <v>17.96181763185719</v>
       </c>
     </row>
     <row r="665">
@@ -22417,7 +22417,7 @@
         <v>6.791671641791045</v>
       </c>
       <c r="I666" t="n">
-        <v>14.61057328080513</v>
+        <v>14.61057328080514</v>
       </c>
     </row>
     <row r="667">
@@ -22483,7 +22483,7 @@
         <v>7.227446882619296</v>
       </c>
       <c r="I668" t="n">
-        <v>14.98229682175458</v>
+        <v>14.98229682175459</v>
       </c>
     </row>
     <row r="669">
@@ -22516,7 +22516,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I669" t="n">
-        <v>17.22709850613363</v>
+        <v>17.22709850613364</v>
       </c>
     </row>
     <row r="670">
@@ -22549,7 +22549,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I670" t="n">
-        <v>17.22709850613363</v>
+        <v>17.22709850613364</v>
       </c>
     </row>
     <row r="671">
@@ -22846,7 +22846,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I679" t="n">
-        <v>17.18923169640552</v>
+        <v>17.18923169640553</v>
       </c>
     </row>
     <row r="680">
@@ -22879,7 +22879,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I680" t="n">
-        <v>17.18923169640552</v>
+        <v>17.18923169640553</v>
       </c>
     </row>
     <row r="681">
@@ -23110,7 +23110,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I687" t="n">
-        <v>15.37786218288745</v>
+        <v>15.37786218288746</v>
       </c>
     </row>
     <row r="688">
@@ -23143,7 +23143,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I688" t="n">
-        <v>15.37786218288745</v>
+        <v>15.37786218288746</v>
       </c>
     </row>
     <row r="689">
@@ -23176,7 +23176,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I689" t="n">
-        <v>15.40652679958668</v>
+        <v>15.40652679958669</v>
       </c>
     </row>
     <row r="690">
@@ -23209,7 +23209,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I690" t="n">
-        <v>15.40652679958668</v>
+        <v>15.40652679958669</v>
       </c>
     </row>
     <row r="691">
@@ -23242,7 +23242,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I691" t="n">
-        <v>15.40652679958668</v>
+        <v>15.40652679958669</v>
       </c>
     </row>
     <row r="692">
@@ -23275,7 +23275,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I692" t="n">
-        <v>15.40652679958668</v>
+        <v>15.40652679958669</v>
       </c>
     </row>
     <row r="693">
@@ -23407,7 +23407,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I696" t="n">
-        <v>15.19631181670872</v>
+        <v>15.19631181670873</v>
       </c>
     </row>
     <row r="697">
@@ -23440,7 +23440,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I697" t="n">
-        <v>15.19631181670872</v>
+        <v>15.19631181670873</v>
       </c>
     </row>
     <row r="698">
@@ -23473,7 +23473,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I698" t="n">
-        <v>15.19631181670872</v>
+        <v>15.19631181670873</v>
       </c>
     </row>
     <row r="699">
@@ -23506,7 +23506,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I699" t="n">
-        <v>15.29075603047178</v>
+        <v>15.29075603047179</v>
       </c>
     </row>
     <row r="700">
@@ -23539,7 +23539,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I700" t="n">
-        <v>15.29075603047178</v>
+        <v>15.29075603047179</v>
       </c>
     </row>
     <row r="701">
@@ -23572,7 +23572,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I701" t="n">
-        <v>15.76384142723431</v>
+        <v>15.76384142723432</v>
       </c>
     </row>
     <row r="702">
@@ -23605,7 +23605,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I702" t="n">
-        <v>15.76384142723431</v>
+        <v>15.76384142723432</v>
       </c>
     </row>
     <row r="703">
@@ -23770,7 +23770,7 @@
         <v>10.6499847421422</v>
       </c>
       <c r="I707" t="n">
-        <v>17.90177863939373</v>
+        <v>17.90177863939374</v>
       </c>
     </row>
     <row r="708">
@@ -23836,7 +23836,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I709" t="n">
-        <v>14.96149878403897</v>
+        <v>14.96149878403898</v>
       </c>
     </row>
     <row r="710">
@@ -23869,7 +23869,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I710" t="n">
-        <v>14.96149878403897</v>
+        <v>14.96149878403898</v>
       </c>
     </row>
     <row r="711">
@@ -24001,7 +24001,7 @@
         <v>7.43147200281903</v>
       </c>
       <c r="I714" t="n">
-        <v>15.15633364858103</v>
+        <v>15.15633364858104</v>
       </c>
     </row>
     <row r="715">
@@ -24067,7 +24067,7 @@
         <v>7.485140759902306</v>
       </c>
       <c r="I716" t="n">
-        <v>15.20211399255705</v>
+        <v>15.20211399255706</v>
       </c>
     </row>
     <row r="717">
@@ -24232,7 +24232,7 @@
         <v>7.565735996473276</v>
       </c>
       <c r="I721" t="n">
-        <v>15.27086307216258</v>
+        <v>15.27086307216259</v>
       </c>
     </row>
     <row r="722">
@@ -24364,7 +24364,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I725" t="n">
-        <v>15.33227671908997</v>
+        <v>15.33227671908998</v>
       </c>
     </row>
     <row r="726">
@@ -24397,7 +24397,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I726" t="n">
-        <v>15.33227671908997</v>
+        <v>15.33227671908998</v>
       </c>
     </row>
     <row r="727">
@@ -24430,7 +24430,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I727" t="n">
-        <v>15.33227671908997</v>
+        <v>15.33227671908998</v>
       </c>
     </row>
     <row r="728">
@@ -24463,7 +24463,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I728" t="n">
-        <v>15.33227671908997</v>
+        <v>15.33227671908998</v>
       </c>
     </row>
     <row r="729">
@@ -24892,7 +24892,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I741" t="n">
-        <v>15.32564362130305</v>
+        <v>15.32564362130306</v>
       </c>
     </row>
     <row r="742">
@@ -24925,7 +24925,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I742" t="n">
-        <v>15.32564362130305</v>
+        <v>15.32564362130306</v>
       </c>
     </row>
     <row r="743">
@@ -24958,7 +24958,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I743" t="n">
-        <v>15.32564362130305</v>
+        <v>15.32564362130306</v>
       </c>
     </row>
     <row r="744">
@@ -25156,7 +25156,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I749" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="750">
@@ -25189,7 +25189,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I750" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="751">
@@ -25222,7 +25222,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I751" t="n">
-        <v>15.2987568829241</v>
+        <v>15.29875688292411</v>
       </c>
     </row>
     <row r="752">
@@ -25255,7 +25255,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I752" t="n">
-        <v>15.2987568829241</v>
+        <v>15.29875688292411</v>
       </c>
     </row>
     <row r="753">
@@ -25288,7 +25288,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I753" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="754">
@@ -25354,7 +25354,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I755" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="756">
@@ -25387,7 +25387,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I756" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="757">
@@ -25420,7 +25420,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I757" t="n">
-        <v>15.2987568829241</v>
+        <v>15.29875688292411</v>
       </c>
     </row>
     <row r="758">
@@ -25453,7 +25453,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I758" t="n">
-        <v>15.2987568829241</v>
+        <v>15.29875688292411</v>
       </c>
     </row>
     <row r="759">
@@ -25486,7 +25486,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I759" t="n">
-        <v>15.25672287784624</v>
+        <v>15.25672287784625</v>
       </c>
     </row>
     <row r="760">
@@ -25552,7 +25552,7 @@
         <v>7.892687505432471</v>
       </c>
       <c r="I761" t="n">
-        <v>15.54975815669763</v>
+        <v>15.54975815669764</v>
       </c>
     </row>
     <row r="762">
@@ -25651,7 +25651,7 @@
         <v>13.8235928401984</v>
       </c>
       <c r="I764" t="n">
-        <v>20.60891922304209</v>
+        <v>20.6089192230421</v>
       </c>
     </row>
     <row r="765">
